--- a/public/files/PERSONAL-PLANTILLA.xlsx
+++ b/public/files/PERSONAL-PLANTILLA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pfj\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1E6906-88F2-40D0-8487-A8DB4244251A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F341D430-5B2B-4F59-88C9-3190C1D9890D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="25755" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen Sesion 3" sheetId="3" r:id="rId1"/>
@@ -18,8 +18,8 @@
   </sheets>
   <calcPr calcId="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filtro 2" guid="{B49203EF-083F-4808-A38D-482A91351666}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filtro 1" guid="{2CE51C50-8968-4341-940E-F5F546BA58E2}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filtro 2" guid="{B49203EF-083F-4808-A38D-482A91351666}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -561,10 +561,10 @@
   </sheetPr>
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -751,7 +751,7 @@
       </c>
       <c r="L4" s="11"/>
       <c r="M4" s="6" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -790,7 +790,7 @@
       </c>
       <c r="L5" s="11"/>
       <c r="M5" s="6" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15" x14ac:dyDescent="0.25">
